--- a/таблицы 2/стиральная машина.xlsx
+++ b/таблицы 2/стиральная машина.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8430"/>
+    <workbookView windowWidth="28110" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="установка стиральной машины" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="191">
   <si>
     <t>IsChecked</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>установка столешницы над стиральной машиной</t>
-  </si>
-  <si>
-    <t>+как установить стиральную машину</t>
   </si>
   <si>
     <t>+как правильно установить стиральную машину</t>
@@ -597,10 +594,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd.mm.yyyy\ h:mm"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -619,28 +616,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,24 +638,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,9 +659,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,43 +713,36 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -753,19 +758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -790,13 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +805,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,49 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,79 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,21 +1000,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1028,39 +1010,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,8 +1032,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,154 +1048,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1673,13 +1670,13 @@
   <dimension ref="A1:W167"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.8190476190476" customWidth="1"/>
-    <col min="2" max="2" width="51.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="71.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="14.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="26.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="28.1238095238095" customWidth="1"/>
@@ -5110,8 +5107,9 @@
       <c r="A49" t="b">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
-        <v>73</v>
+      <c r="B49" t="e">
+        <f>+B5ё</f>
+        <v>#NAME?</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -5182,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -5253,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -5324,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -5395,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -5466,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -5537,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -5608,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -5679,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -5750,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -5821,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -5892,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -5963,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -6034,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -6105,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -6176,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -6247,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -6318,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -6389,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -6460,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -6531,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -6602,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -6673,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -6744,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -6815,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -6886,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -6957,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -7028,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -7099,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
@@ -7170,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
@@ -7241,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
@@ -7312,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
@@ -7383,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
@@ -7454,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
@@ -7525,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -7596,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -7667,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -7738,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -7809,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -7880,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -7951,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -8022,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
@@ -8093,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -8164,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
         <v>30</v>
@@ -8235,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -8306,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -8377,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -8448,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -8519,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -8590,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -8661,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -8732,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -8803,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -8874,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -8945,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
@@ -9016,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
         <v>30</v>
@@ -9087,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -9158,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
@@ -9229,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
         <v>30</v>
@@ -9300,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
         <v>30</v>
@@ -9371,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
@@ -9442,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
         <v>30</v>
@@ -9513,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -9584,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -9655,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -9726,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
         <v>30</v>
@@ -9797,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -9868,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -9939,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -10010,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -10081,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
@@ -10152,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
         <v>30</v>
@@ -10223,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
         <v>30</v>
@@ -10294,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
@@ -10365,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
@@ -10436,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -10507,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
@@ -10578,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
         <v>30</v>
@@ -10649,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -10720,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
         <v>30</v>
@@ -10791,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -10862,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
         <v>30</v>
@@ -10933,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
         <v>30</v>
@@ -11004,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
         <v>30</v>
@@ -11075,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
         <v>30</v>
@@ -11146,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -11217,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -11288,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
         <v>30</v>
@@ -11359,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
@@ -11430,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
@@ -11501,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
         <v>30</v>
@@ -11572,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
         <v>30</v>
@@ -11643,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
         <v>30</v>
@@ -11714,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
@@ -11785,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s">
         <v>30</v>
@@ -11856,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
         <v>30</v>
@@ -11927,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
         <v>30</v>
@@ -11998,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
@@ -12069,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C147" t="s">
         <v>30</v>
@@ -12140,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
         <v>30</v>
@@ -12211,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
         <v>30</v>
@@ -12282,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C150" t="s">
         <v>30</v>
@@ -12353,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
@@ -12424,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s">
         <v>30</v>
@@ -12495,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" t="s">
         <v>30</v>
@@ -12566,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
@@ -12637,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
         <v>30</v>
@@ -12708,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
         <v>30</v>
@@ -12779,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
         <v>30</v>
@@ -12850,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C158" t="s">
         <v>30</v>
@@ -12921,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C159" t="s">
         <v>30</v>
@@ -12992,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
         <v>30</v>
@@ -13063,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -13134,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -13205,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -13276,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -13347,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
         <v>30</v>
@@ -13418,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
@@ -13489,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C167" t="s">
         <v>30</v>
